--- a/Data/SalesTrend/SalesTrend_CNH.xlsx
+++ b/Data/SalesTrend/SalesTrend_CNH.xlsx
@@ -561,31 +561,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>82.55</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C2">
-        <v>87.70999999999999</v>
+        <v>87.48</v>
       </c>
       <c r="D2">
-        <v>86.13</v>
+        <v>85.61</v>
       </c>
       <c r="E2">
-        <v>56.98</v>
+        <v>58.09</v>
       </c>
       <c r="F2">
+        <v>97.76000000000001</v>
+      </c>
+      <c r="G2">
         <v>93.76000000000001</v>
       </c>
-      <c r="G2">
-        <v>92.15000000000001</v>
-      </c>
       <c r="H2">
-        <v>87.15000000000001</v>
+        <v>89.12</v>
       </c>
       <c r="I2">
-        <v>49.95</v>
+        <v>50.72</v>
       </c>
       <c r="J2">
-        <v>93.06999999999999</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -593,31 +593,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>91.14</v>
+        <v>94.98</v>
       </c>
       <c r="C3">
-        <v>120.23</v>
+        <v>121.5</v>
       </c>
       <c r="D3">
-        <v>90.69</v>
+        <v>91.88</v>
       </c>
       <c r="E3">
-        <v>31.33</v>
+        <v>32.91</v>
       </c>
       <c r="F3">
         <v>91.43000000000001</v>
       </c>
       <c r="G3">
-        <v>109.7</v>
+        <v>114.1</v>
       </c>
       <c r="H3">
-        <v>97.59</v>
+        <v>102.88</v>
       </c>
       <c r="I3">
-        <v>48.21</v>
+        <v>48.53</v>
       </c>
       <c r="J3">
-        <v>123.33</v>
+        <v>121.11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -625,31 +625,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>89.94</v>
+        <v>90.11</v>
       </c>
       <c r="C4">
-        <v>92.39</v>
+        <v>93.47</v>
       </c>
       <c r="D4">
-        <v>93.94</v>
+        <v>91.76000000000001</v>
       </c>
       <c r="E4">
-        <v>10.18</v>
+        <v>9.76</v>
       </c>
       <c r="F4">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="G4">
-        <v>68.09</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="H4">
-        <v>95.75</v>
+        <v>114.23</v>
       </c>
       <c r="I4">
-        <v>51.33</v>
+        <v>49.77</v>
       </c>
       <c r="J4">
-        <v>73.66</v>
+        <v>78.43000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -657,31 +657,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>68.77</v>
+        <v>68.64</v>
       </c>
       <c r="C5">
-        <v>129.32</v>
+        <v>123.94</v>
       </c>
       <c r="D5">
-        <v>79.56999999999999</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="E5">
-        <v>28.84</v>
+        <v>41.46</v>
       </c>
       <c r="F5">
-        <v>102.03</v>
+        <v>97.78</v>
       </c>
       <c r="G5">
-        <v>161.69</v>
+        <v>172.97</v>
       </c>
       <c r="H5">
-        <v>88.7</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>38.15</v>
+        <v>36.56</v>
       </c>
       <c r="J5">
-        <v>87.25</v>
+        <v>85.88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -689,31 +689,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>135.86</v>
+        <v>130.2</v>
       </c>
       <c r="C6">
-        <v>147.25</v>
+        <v>146.11</v>
       </c>
       <c r="D6">
-        <v>121.91</v>
+        <v>116.83</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>50.79</v>
       </c>
       <c r="F6">
-        <v>108.21</v>
+        <v>133.33</v>
       </c>
       <c r="G6">
-        <v>102.3</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="H6">
-        <v>159.38</v>
+        <v>162.69</v>
       </c>
       <c r="I6">
-        <v>45</v>
+        <v>43.12</v>
       </c>
       <c r="J6">
-        <v>187.11</v>
+        <v>179.31</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -721,31 +721,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>113.2</v>
+        <v>131.49</v>
       </c>
       <c r="C7">
-        <v>105.15</v>
+        <v>113.53</v>
       </c>
       <c r="D7">
-        <v>43.14</v>
+        <v>63.71</v>
       </c>
       <c r="E7">
-        <v>48.27</v>
+        <v>46.26</v>
       </c>
       <c r="F7">
-        <v>64.20999999999999</v>
+        <v>61.54</v>
       </c>
       <c r="G7">
-        <v>110.01</v>
+        <v>105.43</v>
       </c>
       <c r="H7">
-        <v>82.26000000000001</v>
+        <v>78.83</v>
       </c>
       <c r="I7">
-        <v>67.31999999999999</v>
+        <v>74.66</v>
       </c>
       <c r="J7">
-        <v>152.38</v>
+        <v>146.03</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -753,31 +753,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>86.76000000000001</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="C8">
-        <v>129.29</v>
+        <v>133.6</v>
       </c>
       <c r="D8">
-        <v>109.98</v>
+        <v>108.11</v>
       </c>
       <c r="E8">
-        <v>20.36</v>
+        <v>19.51</v>
       </c>
       <c r="F8">
-        <v>123.67</v>
+        <v>118.52</v>
       </c>
       <c r="G8">
-        <v>115.45</v>
+        <v>121.99</v>
       </c>
       <c r="H8">
-        <v>82.90000000000001</v>
+        <v>88.22</v>
       </c>
       <c r="I8">
-        <v>46.88</v>
+        <v>49.13</v>
       </c>
       <c r="J8">
-        <v>156.52</v>
+        <v>152.78</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -785,31 +785,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>67.83</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C9">
-        <v>73.70999999999999</v>
+        <v>72.31</v>
       </c>
       <c r="D9">
-        <v>80.15000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="E9">
-        <v>10.85</v>
+        <v>10.4</v>
       </c>
       <c r="F9">
-        <v>77.7</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="G9">
-        <v>72.69</v>
+        <v>70.75</v>
       </c>
       <c r="H9">
-        <v>62.78</v>
+        <v>62.58</v>
       </c>
       <c r="I9">
-        <v>46.03</v>
+        <v>45.58</v>
       </c>
       <c r="J9">
-        <v>90.53</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -817,31 +817,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>122.47</v>
+        <v>118.24</v>
       </c>
       <c r="C10">
-        <v>121.94</v>
+        <v>116.86</v>
       </c>
       <c r="D10">
-        <v>105.11</v>
+        <v>102.97</v>
       </c>
       <c r="E10">
-        <v>32.74</v>
+        <v>31.37</v>
       </c>
       <c r="F10">
-        <v>95.19</v>
+        <v>91.23</v>
       </c>
       <c r="G10">
-        <v>74.61</v>
+        <v>71.5</v>
       </c>
       <c r="H10">
-        <v>91.88</v>
+        <v>89.19</v>
       </c>
       <c r="I10">
-        <v>51.79</v>
+        <v>50.19</v>
       </c>
       <c r="J10">
-        <v>156.84</v>
+        <v>152.73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -849,31 +849,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>44.01</v>
+        <v>45.63</v>
       </c>
       <c r="C11">
-        <v>61.77</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="D11">
-        <v>65.73999999999999</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G11">
-        <v>78.97</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H11">
-        <v>46.06</v>
+        <v>48.69</v>
       </c>
       <c r="I11">
-        <v>30.26</v>
+        <v>28.99</v>
       </c>
       <c r="J11">
-        <v>63.6</v>
+        <v>64.76000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -881,31 +881,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>87.48</v>
+        <v>90.92</v>
       </c>
       <c r="C12">
-        <v>75.13</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>108.71</v>
+        <v>109.06</v>
       </c>
       <c r="E12">
-        <v>10.41</v>
+        <v>9.98</v>
       </c>
       <c r="F12">
-        <v>98.20999999999999</v>
+        <v>94.12</v>
       </c>
       <c r="G12">
-        <v>95.79000000000001</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="H12">
-        <v>54.97</v>
+        <v>58.11</v>
       </c>
       <c r="I12">
-        <v>67.51000000000001</v>
+        <v>65.61</v>
       </c>
       <c r="J12">
-        <v>73.78</v>
+        <v>78.79000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -913,31 +913,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>41.49</v>
+        <v>39.76</v>
       </c>
       <c r="C13">
-        <v>40.2</v>
+        <v>38.53</v>
       </c>
       <c r="D13">
-        <v>63.24</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="E13">
-        <v>5.09</v>
+        <v>4.88</v>
       </c>
       <c r="F13">
-        <v>111.3</v>
+        <v>106.67</v>
       </c>
       <c r="G13">
-        <v>72.59</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H13">
-        <v>48.27</v>
+        <v>48.3</v>
       </c>
       <c r="I13">
-        <v>60.96</v>
+        <v>66.27</v>
       </c>
       <c r="J13">
-        <v>166.96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -945,31 +945,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>30.33</v>
+        <v>30.26</v>
       </c>
       <c r="C14">
-        <v>37.39</v>
+        <v>35.83</v>
       </c>
       <c r="D14">
-        <v>31.92</v>
+        <v>30.59</v>
       </c>
       <c r="E14">
-        <v>13.84</v>
+        <v>13.26</v>
       </c>
       <c r="F14">
-        <v>60.87</v>
+        <v>58.33</v>
       </c>
       <c r="G14">
-        <v>40.47</v>
+        <v>41.21</v>
       </c>
       <c r="H14">
-        <v>52.31</v>
+        <v>50.13</v>
       </c>
       <c r="I14">
-        <v>20.21</v>
+        <v>19.78</v>
       </c>
       <c r="J14">
-        <v>31.5</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -977,31 +977,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>120.86</v>
+        <v>121.43</v>
       </c>
       <c r="C15">
-        <v>137.66</v>
+        <v>135.9</v>
       </c>
       <c r="D15">
-        <v>111.24</v>
+        <v>111</v>
       </c>
       <c r="E15">
-        <v>90.28</v>
+        <v>89.56999999999999</v>
       </c>
       <c r="F15">
-        <v>101.73</v>
+        <v>110.39</v>
       </c>
       <c r="G15">
-        <v>115.33</v>
+        <v>119.17</v>
       </c>
       <c r="H15">
-        <v>95.87</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="I15">
-        <v>52.14</v>
+        <v>53</v>
       </c>
       <c r="J15">
-        <v>104.49</v>
+        <v>105.14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1009,31 +1009,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>108.47</v>
+        <v>108.51</v>
       </c>
       <c r="C16">
-        <v>142.86</v>
+        <v>141.96</v>
       </c>
       <c r="D16">
-        <v>111.87</v>
+        <v>111.79</v>
       </c>
       <c r="E16">
-        <v>63.63</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F16">
-        <v>147.31</v>
+        <v>141.18</v>
       </c>
       <c r="G16">
-        <v>75.09</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="H16">
-        <v>75.78</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="I16">
-        <v>25.94</v>
+        <v>32.67</v>
       </c>
       <c r="J16">
-        <v>106.39</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1041,31 +1041,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>129.25</v>
+        <v>127.16</v>
       </c>
       <c r="C17">
-        <v>125.54</v>
+        <v>121.73</v>
       </c>
       <c r="D17">
-        <v>141.67</v>
+        <v>137.18</v>
       </c>
       <c r="E17">
-        <v>126.4</v>
+        <v>121.14</v>
       </c>
       <c r="F17">
-        <v>57.97</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>113.99</v>
+        <v>115.66</v>
       </c>
       <c r="H17">
-        <v>112.49</v>
+        <v>109.64</v>
       </c>
       <c r="I17">
-        <v>67.41</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="J17">
-        <v>102.93</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1073,31 +1073,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>113.28</v>
+        <v>108.94</v>
       </c>
       <c r="C18">
-        <v>183.72</v>
+        <v>178.5</v>
       </c>
       <c r="D18">
-        <v>106.91</v>
+        <v>101.29</v>
       </c>
       <c r="E18">
-        <v>106.95</v>
+        <v>102.49</v>
       </c>
       <c r="F18">
-        <v>109.32</v>
+        <v>104.76</v>
       </c>
       <c r="G18">
-        <v>147.08</v>
+        <v>150.48</v>
       </c>
       <c r="H18">
-        <v>103.46</v>
+        <v>101.38</v>
       </c>
       <c r="I18">
-        <v>71.33</v>
+        <v>69.36</v>
       </c>
       <c r="J18">
-        <v>98.59999999999999</v>
+        <v>96.59</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1105,31 +1105,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>143.93</v>
+        <v>143.38</v>
       </c>
       <c r="C19">
-        <v>122.37</v>
+        <v>124.09</v>
       </c>
       <c r="D19">
-        <v>132.58</v>
+        <v>133.88</v>
       </c>
       <c r="E19">
-        <v>101.27</v>
+        <v>97.05</v>
       </c>
       <c r="F19">
-        <v>123.67</v>
+        <v>118.52</v>
       </c>
       <c r="G19">
-        <v>161.64</v>
+        <v>172.55</v>
       </c>
       <c r="H19">
-        <v>105.77</v>
+        <v>106.17</v>
       </c>
       <c r="I19">
-        <v>55.43</v>
+        <v>53.13</v>
       </c>
       <c r="J19">
-        <v>128.06</v>
+        <v>128.79</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1137,31 +1137,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>117.22</v>
+        <v>126.23</v>
       </c>
       <c r="C20">
-        <v>102.61</v>
+        <v>104.67</v>
       </c>
       <c r="D20">
-        <v>75.06</v>
+        <v>82.67</v>
       </c>
       <c r="E20">
-        <v>55.99</v>
+        <v>63.41</v>
       </c>
       <c r="F20">
-        <v>92.75</v>
+        <v>97.78</v>
       </c>
       <c r="G20">
-        <v>65.77</v>
+        <v>72.73</v>
       </c>
       <c r="H20">
-        <v>75.73</v>
+        <v>81.52</v>
       </c>
       <c r="I20">
-        <v>30.83</v>
+        <v>37.03</v>
       </c>
       <c r="J20">
-        <v>88.84</v>
+        <v>97.98999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1169,31 +1169,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>88.23</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="C21">
-        <v>84.91</v>
+        <v>84.52</v>
       </c>
       <c r="D21">
-        <v>92.40000000000001</v>
+        <v>90.84</v>
       </c>
       <c r="E21">
-        <v>128.62</v>
+        <v>135.18</v>
       </c>
       <c r="F21">
-        <v>72.64</v>
+        <v>77.88</v>
       </c>
       <c r="G21">
-        <v>76.73999999999999</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H21">
-        <v>83.67</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="I21">
-        <v>40.9</v>
+        <v>40.75</v>
       </c>
       <c r="J21">
-        <v>84.56999999999999</v>
+        <v>85.83</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1201,31 +1201,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>113.49</v>
+        <v>124.85</v>
       </c>
       <c r="C22">
-        <v>115.48</v>
+        <v>119.11</v>
       </c>
       <c r="D22">
-        <v>84.95</v>
+        <v>97.03</v>
       </c>
       <c r="E22">
-        <v>338.24</v>
+        <v>342.91</v>
       </c>
       <c r="F22">
-        <v>92.75</v>
+        <v>102.22</v>
       </c>
       <c r="G22">
-        <v>81.16</v>
+        <v>81.48</v>
       </c>
       <c r="H22">
-        <v>97.31</v>
+        <v>107.29</v>
       </c>
       <c r="I22">
-        <v>43.11</v>
+        <v>47.14</v>
       </c>
       <c r="J22">
-        <v>84.69</v>
+        <v>91.59</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1233,31 +1233,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>98.55</v>
+        <v>104.56</v>
       </c>
       <c r="C23">
-        <v>71.75</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="D23">
-        <v>93.43000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E23">
-        <v>101.27</v>
+        <v>97.05</v>
       </c>
       <c r="F23">
-        <v>59.63</v>
+        <v>57.14</v>
       </c>
       <c r="G23">
-        <v>45.01</v>
+        <v>43.14</v>
       </c>
       <c r="H23">
-        <v>90.65000000000001</v>
+        <v>94.87</v>
       </c>
       <c r="I23">
-        <v>34.47</v>
+        <v>30.19</v>
       </c>
       <c r="J23">
-        <v>99.86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1265,31 +1265,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>54.05</v>
+        <v>52.32</v>
       </c>
       <c r="C24">
-        <v>61.22</v>
+        <v>60.61</v>
       </c>
       <c r="D24">
-        <v>59.24</v>
+        <v>56.77</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>14.37</v>
       </c>
       <c r="F24">
-        <v>41.74</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>37.6</v>
+        <v>36.04</v>
       </c>
       <c r="H24">
-        <v>67.95</v>
+        <v>64.53</v>
       </c>
       <c r="I24">
-        <v>26.4</v>
+        <v>26.54</v>
       </c>
       <c r="J24">
-        <v>71.70999999999999</v>
+        <v>72.81999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1297,31 +1297,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>98.31</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="C25">
-        <v>93.15000000000001</v>
+        <v>89.27</v>
       </c>
       <c r="D25">
-        <v>78.41</v>
+        <v>75.14</v>
       </c>
       <c r="E25">
-        <v>44.57</v>
+        <v>42.71</v>
       </c>
       <c r="F25">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="G25">
-        <v>131.71</v>
+        <v>126.22</v>
       </c>
       <c r="H25">
-        <v>94.90000000000001</v>
+        <v>90.95</v>
       </c>
       <c r="I25">
-        <v>72.97</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="J25">
-        <v>110.59</v>
+        <v>105.98</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1329,31 +1329,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>68.45</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="C26">
-        <v>83.95999999999999</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="D26">
-        <v>83.7</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="E26">
-        <v>195.92</v>
+        <v>262.13</v>
       </c>
       <c r="F26">
-        <v>139.13</v>
+        <v>168.89</v>
       </c>
       <c r="G26">
-        <v>59.63</v>
+        <v>57.14</v>
       </c>
       <c r="H26">
-        <v>71.54000000000001</v>
+        <v>75.59</v>
       </c>
       <c r="I26">
-        <v>35.92</v>
+        <v>39.29</v>
       </c>
       <c r="J26">
-        <v>90.97</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1361,31 +1361,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>82.08</v>
+        <v>78.06</v>
       </c>
       <c r="C27">
-        <v>57.36</v>
+        <v>53.61</v>
       </c>
       <c r="D27">
-        <v>140.01</v>
+        <v>134.17</v>
       </c>
       <c r="E27">
-        <v>61.52</v>
+        <v>58.96</v>
       </c>
       <c r="F27">
-        <v>29.81</v>
+        <v>28.57</v>
       </c>
       <c r="G27">
-        <v>43.73</v>
+        <v>41.9</v>
       </c>
       <c r="H27">
-        <v>78.93000000000001</v>
+        <v>75.64</v>
       </c>
       <c r="I27">
-        <v>45.73</v>
+        <v>43.83</v>
       </c>
       <c r="J27">
-        <v>51.59</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1393,31 +1393,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>58.62</v>
+        <v>59.91</v>
       </c>
       <c r="C28">
-        <v>67.54000000000001</v>
+        <v>67.84</v>
       </c>
       <c r="D28">
-        <v>64.93000000000001</v>
+        <v>65.42</v>
       </c>
       <c r="E28">
-        <v>24.77</v>
+        <v>23.74</v>
       </c>
       <c r="F28">
-        <v>79.25</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="G28">
-        <v>86.40000000000001</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="H28">
-        <v>89.67</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="I28">
-        <v>51.47</v>
+        <v>52.69</v>
       </c>
       <c r="J28">
-        <v>79.29000000000001</v>
+        <v>86.19</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1425,31 +1425,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>72.95</v>
+        <v>72.98</v>
       </c>
       <c r="C29">
-        <v>75.65000000000001</v>
+        <v>79.05</v>
       </c>
       <c r="D29">
-        <v>130.91</v>
+        <v>138.25</v>
       </c>
       <c r="E29">
-        <v>83.29000000000001</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="F29">
-        <v>42.81</v>
+        <v>41.03</v>
       </c>
       <c r="G29">
-        <v>65.22</v>
+        <v>66.67</v>
       </c>
       <c r="H29">
-        <v>92.58</v>
+        <v>98.53</v>
       </c>
       <c r="I29">
-        <v>57.26</v>
+        <v>60.71</v>
       </c>
       <c r="J29">
-        <v>126.09</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1457,31 +1457,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>53.85</v>
+        <v>54.36</v>
       </c>
       <c r="C30">
-        <v>69.09999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D30">
-        <v>86.37</v>
+        <v>82.77</v>
       </c>
       <c r="E30">
-        <v>20.82</v>
+        <v>19.95</v>
       </c>
       <c r="F30">
-        <v>46.38</v>
+        <v>44.44</v>
       </c>
       <c r="G30">
-        <v>37.94</v>
+        <v>42.42</v>
       </c>
       <c r="H30">
-        <v>85.95999999999999</v>
+        <v>87.14</v>
       </c>
       <c r="I30">
-        <v>24</v>
+        <v>23.85</v>
       </c>
       <c r="J30">
-        <v>115.28</v>
+        <v>110.48</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1489,31 +1489,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>69.37</v>
+        <v>76.55</v>
       </c>
       <c r="C31">
-        <v>89.73</v>
+        <v>95.09</v>
       </c>
       <c r="D31">
-        <v>125.92</v>
+        <v>133.06</v>
       </c>
       <c r="E31">
-        <v>28.29</v>
+        <v>27.11</v>
       </c>
       <c r="F31">
-        <v>79.5</v>
+        <v>76.19</v>
       </c>
       <c r="G31">
-        <v>135.04</v>
+        <v>141.18</v>
       </c>
       <c r="H31">
-        <v>119.25</v>
+        <v>139.13</v>
       </c>
       <c r="I31">
-        <v>74.81999999999999</v>
+        <v>84.66</v>
       </c>
       <c r="J31">
-        <v>147.08</v>
+        <v>205.71</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1521,31 +1521,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>32.33</v>
+        <v>31.15</v>
       </c>
       <c r="C32">
-        <v>44.26</v>
+        <v>43.42</v>
       </c>
       <c r="D32">
-        <v>30.04</v>
+        <v>30.24</v>
       </c>
       <c r="E32">
-        <v>10.29</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F32">
-        <v>42.81</v>
+        <v>41.03</v>
       </c>
       <c r="G32">
-        <v>84.78</v>
+        <v>83.33</v>
       </c>
       <c r="H32">
-        <v>60.29</v>
+        <v>58.74</v>
       </c>
       <c r="I32">
-        <v>48.67</v>
+        <v>46.64</v>
       </c>
       <c r="J32">
-        <v>20.69</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1553,31 +1553,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>80.3</v>
+        <v>83.25</v>
       </c>
       <c r="C33">
-        <v>101.72</v>
+        <v>100.62</v>
       </c>
       <c r="D33">
-        <v>99.16</v>
+        <v>96.44</v>
       </c>
       <c r="E33">
-        <v>32.18</v>
+        <v>30.84</v>
       </c>
       <c r="F33">
-        <v>278.26</v>
+        <v>296.3</v>
       </c>
       <c r="G33">
-        <v>106.39</v>
+        <v>117.65</v>
       </c>
       <c r="H33">
-        <v>96.70999999999999</v>
+        <v>102.44</v>
       </c>
       <c r="I33">
-        <v>60.96</v>
+        <v>63.36</v>
       </c>
       <c r="J33">
-        <v>122.04</v>
+        <v>126.32</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1585,31 +1585,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>108.13</v>
+        <v>108.94</v>
       </c>
       <c r="C34">
-        <v>88.09999999999999</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="D34">
-        <v>136.04</v>
+        <v>133.59</v>
       </c>
       <c r="E34">
-        <v>12.84</v>
+        <v>12.31</v>
       </c>
       <c r="F34">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G34">
-        <v>96.79000000000001</v>
+        <v>98.55</v>
       </c>
       <c r="H34">
-        <v>126.48</v>
+        <v>126.06</v>
       </c>
       <c r="I34">
-        <v>46.26</v>
+        <v>45.01</v>
       </c>
       <c r="J34">
-        <v>233.74</v>
+        <v>229.33</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1617,31 +1617,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>61.39</v>
+        <v>62.26</v>
       </c>
       <c r="C35">
-        <v>68.28</v>
+        <v>68.98</v>
       </c>
       <c r="D35">
-        <v>94.75</v>
+        <v>91.37</v>
       </c>
       <c r="E35">
-        <v>37.35</v>
+        <v>35.79</v>
       </c>
       <c r="F35">
-        <v>150.41</v>
+        <v>162.16</v>
       </c>
       <c r="G35">
-        <v>84.11</v>
+        <v>85.88</v>
       </c>
       <c r="H35">
-        <v>96.26000000000001</v>
+        <v>100.23</v>
       </c>
       <c r="I35">
-        <v>58.52</v>
+        <v>61.03</v>
       </c>
       <c r="J35">
-        <v>85.62</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1649,31 +1649,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>44.59</v>
+        <v>48.96</v>
       </c>
       <c r="C36">
-        <v>59.04</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="D36">
-        <v>104.01</v>
+        <v>99.67</v>
       </c>
       <c r="E36">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F36">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="G36">
-        <v>100.75</v>
+        <v>96.55</v>
       </c>
       <c r="H36">
-        <v>136.18</v>
+        <v>144.63</v>
       </c>
       <c r="I36">
-        <v>84.2</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="J36">
-        <v>130.43</v>
+        <v>145.83</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1681,31 +1681,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>73.88</v>
+        <v>75.31</v>
       </c>
       <c r="C37">
-        <v>68.76000000000001</v>
+        <v>72.36</v>
       </c>
       <c r="D37">
-        <v>92.45</v>
+        <v>91.33</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>114.58</v>
+        <v>125.49</v>
       </c>
       <c r="G37">
-        <v>61.84</v>
+        <v>66.67</v>
       </c>
       <c r="H37">
-        <v>89.93000000000001</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="I37">
-        <v>59.49</v>
+        <v>63.84</v>
       </c>
       <c r="J37">
-        <v>106</v>
+        <v>107.94</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1713,31 +1713,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>42.27</v>
+        <v>41.56</v>
       </c>
       <c r="C38">
-        <v>72.14</v>
+        <v>69.14</v>
       </c>
       <c r="D38">
-        <v>86.2</v>
+        <v>82.61</v>
       </c>
       <c r="E38">
-        <v>54.89</v>
+        <v>52.61</v>
       </c>
       <c r="F38">
-        <v>125.88</v>
+        <v>120.63</v>
       </c>
       <c r="G38">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H38">
-        <v>79.56999999999999</v>
+        <v>82.97</v>
       </c>
       <c r="I38">
-        <v>61.81</v>
+        <v>60.14</v>
       </c>
       <c r="J38">
-        <v>74.2</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1745,31 +1745,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>69.3</v>
+        <v>67.61</v>
       </c>
       <c r="C39">
-        <v>69.02</v>
+        <v>71.37</v>
       </c>
       <c r="D39">
-        <v>97.62</v>
+        <v>93.55</v>
       </c>
       <c r="E39">
-        <v>100.11</v>
+        <v>95.94</v>
       </c>
       <c r="F39">
-        <v>198.76</v>
+        <v>238.1</v>
       </c>
       <c r="G39">
-        <v>123.23</v>
+        <v>125.71</v>
       </c>
       <c r="H39">
-        <v>80.48999999999999</v>
+        <v>91.83</v>
       </c>
       <c r="I39">
-        <v>51.37</v>
+        <v>53.91</v>
       </c>
       <c r="J39">
-        <v>71.55</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1777,31 +1777,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>68.48999999999999</v>
+        <v>68.36</v>
       </c>
       <c r="C40">
-        <v>70.38</v>
+        <v>67.45</v>
       </c>
       <c r="D40">
-        <v>95.88</v>
+        <v>91.89</v>
       </c>
       <c r="E40">
-        <v>17.04</v>
+        <v>16.33</v>
       </c>
       <c r="F40">
-        <v>266.67</v>
+        <v>288.89</v>
       </c>
       <c r="G40">
-        <v>71.18000000000001</v>
+        <v>77.52</v>
       </c>
       <c r="H40">
-        <v>108.4</v>
+        <v>103.88</v>
       </c>
       <c r="I40">
         <v>39.32</v>
       </c>
       <c r="J40">
-        <v>54.29</v>
+        <v>52.03</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CNH.xlsx
+++ b/Data/SalesTrend/SalesTrend_CNH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,123 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>CNH10</t>
+  </si>
+  <si>
+    <t>CNH11</t>
+  </si>
+  <si>
+    <t>CNH12</t>
+  </si>
+  <si>
+    <t>CNH13</t>
+  </si>
+  <si>
+    <t>CNH16</t>
+  </si>
+  <si>
+    <t>CNH17</t>
+  </si>
+  <si>
+    <t>CNH20</t>
+  </si>
+  <si>
+    <t>CNH21</t>
+  </si>
+  <si>
+    <t>CNH22</t>
+  </si>
+  <si>
+    <t>CNH23</t>
+  </si>
+  <si>
+    <t>CNH25</t>
+  </si>
+  <si>
+    <t>CNH27</t>
+  </si>
+  <si>
+    <t>CNH30</t>
+  </si>
+  <si>
+    <t>CNH31</t>
+  </si>
+  <si>
+    <t>CNH32</t>
+  </si>
+  <si>
+    <t>CNH33</t>
+  </si>
+  <si>
+    <t>CNH34</t>
+  </si>
+  <si>
+    <t>CNH35</t>
+  </si>
+  <si>
+    <t>CNH40</t>
+  </si>
+  <si>
+    <t>CNH41</t>
+  </si>
+  <si>
+    <t>CNH42</t>
+  </si>
+  <si>
+    <t>CNH43</t>
+  </si>
+  <si>
+    <t>CNH44</t>
+  </si>
+  <si>
+    <t>CNH45</t>
+  </si>
+  <si>
+    <t>CNH46</t>
+  </si>
+  <si>
+    <t>CNH50</t>
+  </si>
+  <si>
+    <t>CNH51</t>
+  </si>
+  <si>
+    <t>CNH52</t>
+  </si>
+  <si>
+    <t>CNH53</t>
+  </si>
+  <si>
+    <t>CNH55</t>
+  </si>
+  <si>
+    <t>CNH56</t>
+  </si>
+  <si>
+    <t>CNH57</t>
+  </si>
+  <si>
+    <t>CNH60</t>
+  </si>
+  <si>
+    <t>CNH61</t>
+  </si>
+  <si>
+    <t>CNH62</t>
+  </si>
+  <si>
+    <t>CNH63</t>
+  </si>
+  <si>
+    <t>CNH65</t>
+  </si>
+  <si>
+    <t>CNH66</t>
   </si>
 </sst>
 </file>
@@ -401,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +556,1254 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>63.96</v>
+      </c>
+      <c r="C2">
+        <v>69.81</v>
+      </c>
+      <c r="D2">
+        <v>58.96</v>
+      </c>
+      <c r="E2">
+        <v>30.3</v>
+      </c>
+      <c r="F2">
+        <v>123.68</v>
+      </c>
+      <c r="G2">
+        <v>67.87</v>
+      </c>
+      <c r="H2">
+        <v>69.11</v>
+      </c>
+      <c r="I2">
+        <v>52.29</v>
+      </c>
+      <c r="J2">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>50.21</v>
+      </c>
+      <c r="C3">
+        <v>84.33</v>
+      </c>
+      <c r="D3">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>121.57</v>
+      </c>
+      <c r="G3">
+        <v>82.16</v>
+      </c>
+      <c r="H3">
+        <v>63.91</v>
+      </c>
+      <c r="I3">
+        <v>32.34</v>
+      </c>
+      <c r="J3">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>42.32</v>
+      </c>
+      <c r="C4">
+        <v>94.64</v>
+      </c>
+      <c r="D4">
+        <v>52.81</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>258.33</v>
+      </c>
+      <c r="G4">
+        <v>25.51</v>
+      </c>
+      <c r="H4">
+        <v>69.94</v>
+      </c>
+      <c r="I4">
+        <v>2.81</v>
+      </c>
+      <c r="J4">
+        <v>72.51000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>65.06</v>
+      </c>
+      <c r="C5">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="D5">
+        <v>15.98</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>41.33</v>
+      </c>
+      <c r="H5">
+        <v>82.58</v>
+      </c>
+      <c r="I5">
+        <v>42.85</v>
+      </c>
+      <c r="J5">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C6">
+        <v>77.05</v>
+      </c>
+      <c r="D6">
+        <v>45.59</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100.81</v>
+      </c>
+      <c r="H6">
+        <v>91.33</v>
+      </c>
+      <c r="I6">
+        <v>63.88</v>
+      </c>
+      <c r="J6">
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="C7">
+        <v>10.47</v>
+      </c>
+      <c r="D7">
+        <v>18.67</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>93.94</v>
+      </c>
+      <c r="G7">
+        <v>133.95</v>
+      </c>
+      <c r="H7">
+        <v>18.59</v>
+      </c>
+      <c r="I7">
+        <v>28.38</v>
+      </c>
+      <c r="J7">
+        <v>54.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>44.39</v>
+      </c>
+      <c r="C8">
+        <v>138.87</v>
+      </c>
+      <c r="D8">
+        <v>153.76</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>206.67</v>
+      </c>
+      <c r="G8">
+        <v>135.96</v>
+      </c>
+      <c r="H8">
+        <v>48.33</v>
+      </c>
+      <c r="I8">
+        <v>34.24</v>
+      </c>
+      <c r="J8">
+        <v>185.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>70.09</v>
+      </c>
+      <c r="C9">
+        <v>64.13</v>
+      </c>
+      <c r="D9">
+        <v>59.98</v>
+      </c>
+      <c r="E9">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="F9">
+        <v>215.28</v>
+      </c>
+      <c r="G9">
+        <v>52.91</v>
+      </c>
+      <c r="H9">
+        <v>70.02</v>
+      </c>
+      <c r="I9">
+        <v>39.4</v>
+      </c>
+      <c r="J9">
+        <v>72.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>185.05</v>
+      </c>
+      <c r="C10">
+        <v>140.11</v>
+      </c>
+      <c r="D10">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>425.49</v>
+      </c>
+      <c r="G10">
+        <v>33.33</v>
+      </c>
+      <c r="H10">
+        <v>133.33</v>
+      </c>
+      <c r="I10">
+        <v>83.62</v>
+      </c>
+      <c r="J10">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>36.05</v>
+      </c>
+      <c r="C11">
+        <v>26.46</v>
+      </c>
+      <c r="D11">
+        <v>95.81</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>153.09</v>
+      </c>
+      <c r="H11">
+        <v>59.39</v>
+      </c>
+      <c r="I11">
+        <v>21.96</v>
+      </c>
+      <c r="J11">
+        <v>121.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="C12">
+        <v>71.69</v>
+      </c>
+      <c r="D12">
+        <v>78.58</v>
+      </c>
+      <c r="E12">
+        <v>63.92</v>
+      </c>
+      <c r="F12">
+        <v>387.5</v>
+      </c>
+      <c r="G12">
+        <v>35.63</v>
+      </c>
+      <c r="H12">
+        <v>11.74</v>
+      </c>
+      <c r="I12">
+        <v>14.19</v>
+      </c>
+      <c r="J12">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>27.55</v>
+      </c>
+      <c r="C13">
+        <v>47.1</v>
+      </c>
+      <c r="D13">
+        <v>18.19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>44.93</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
+      <c r="I13">
+        <v>25.52</v>
+      </c>
+      <c r="J13">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>22.53</v>
+      </c>
+      <c r="C14">
+        <v>14.94</v>
+      </c>
+      <c r="D14">
+        <v>12.2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>114.81</v>
+      </c>
+      <c r="G14">
+        <v>19.87</v>
+      </c>
+      <c r="H14">
+        <v>17.34</v>
+      </c>
+      <c r="I14">
+        <v>35.43</v>
+      </c>
+      <c r="J14">
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>100.24</v>
+      </c>
+      <c r="C15">
+        <v>141.03</v>
+      </c>
+      <c r="D15">
+        <v>65.59</v>
+      </c>
+      <c r="E15">
+        <v>133.53</v>
+      </c>
+      <c r="F15">
+        <v>104.28</v>
+      </c>
+      <c r="G15">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="H15">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="I15">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="J15">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>24.78</v>
+      </c>
+      <c r="C16">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="D16">
+        <v>49.36</v>
+      </c>
+      <c r="E16">
+        <v>240.77</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>63.9</v>
+      </c>
+      <c r="I16">
+        <v>25.22</v>
+      </c>
+      <c r="J16">
+        <v>32.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>200.68</v>
+      </c>
+      <c r="C17">
+        <v>250.62</v>
+      </c>
+      <c r="D17">
+        <v>71.67</v>
+      </c>
+      <c r="E17">
+        <v>411.33</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>137.07</v>
+      </c>
+      <c r="H17">
+        <v>64.66</v>
+      </c>
+      <c r="I17">
+        <v>158.49</v>
+      </c>
+      <c r="J17">
+        <v>61.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>143.47</v>
+      </c>
+      <c r="C18">
+        <v>205.03</v>
+      </c>
+      <c r="D18">
+        <v>112.33</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>320.69</v>
+      </c>
+      <c r="G18">
+        <v>146.13</v>
+      </c>
+      <c r="H18">
+        <v>179.02</v>
+      </c>
+      <c r="I18">
+        <v>90.81</v>
+      </c>
+      <c r="J18">
+        <v>96.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>91.65000000000001</v>
+      </c>
+      <c r="C19">
+        <v>78.34</v>
+      </c>
+      <c r="D19">
+        <v>56.59</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>93.94</v>
+      </c>
+      <c r="G19">
+        <v>10.88</v>
+      </c>
+      <c r="H19">
+        <v>37.97</v>
+      </c>
+      <c r="I19">
+        <v>18.93</v>
+      </c>
+      <c r="J19">
+        <v>42.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>40.95</v>
+      </c>
+      <c r="C20">
+        <v>32.53</v>
+      </c>
+      <c r="D20">
+        <v>28.48</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>68.89</v>
+      </c>
+      <c r="G20">
+        <v>15.9</v>
+      </c>
+      <c r="H20">
+        <v>41.28</v>
+      </c>
+      <c r="I20">
+        <v>19.18</v>
+      </c>
+      <c r="J20">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>28.3</v>
+      </c>
+      <c r="C21">
+        <v>25.02</v>
+      </c>
+      <c r="D21">
+        <v>28.84</v>
+      </c>
+      <c r="E21">
+        <v>51.33</v>
+      </c>
+      <c r="F21">
+        <v>19.5</v>
+      </c>
+      <c r="G21">
+        <v>17.11</v>
+      </c>
+      <c r="H21">
+        <v>39.83</v>
+      </c>
+      <c r="I21">
+        <v>21.48</v>
+      </c>
+      <c r="J21">
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>11.51</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>27.63</v>
+      </c>
+      <c r="E22">
+        <v>30.1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>13.07</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>41.35</v>
+      </c>
+      <c r="C23">
+        <v>38.27</v>
+      </c>
+      <c r="D23">
+        <v>38.33</v>
+      </c>
+      <c r="E23">
+        <v>181.1</v>
+      </c>
+      <c r="F23">
+        <v>93.94</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="I23">
+        <v>16.79</v>
+      </c>
+      <c r="J23">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>48.69</v>
+      </c>
+      <c r="C24">
+        <v>40.99</v>
+      </c>
+      <c r="D24">
+        <v>15.26</v>
+      </c>
+      <c r="E24">
+        <v>27.8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>43.85</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>32.3</v>
+      </c>
+      <c r="C25">
+        <v>53.24</v>
+      </c>
+      <c r="D25">
+        <v>54.34</v>
+      </c>
+      <c r="E25">
+        <v>85.28</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>20.67</v>
+      </c>
+      <c r="H25">
+        <v>32.03</v>
+      </c>
+      <c r="I25">
+        <v>53.07</v>
+      </c>
+      <c r="J25">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>42.52</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>14.72</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>54.39</v>
+      </c>
+      <c r="G26">
+        <v>70.45</v>
+      </c>
+      <c r="H26">
+        <v>51.1</v>
+      </c>
+      <c r="I26">
+        <v>40.25</v>
+      </c>
+      <c r="J26">
+        <v>48.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>9.06</v>
+      </c>
+      <c r="C27">
+        <v>5.87</v>
+      </c>
+      <c r="D27">
+        <v>20.48</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>20.26</v>
+      </c>
+      <c r="I27">
+        <v>26.28</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>67.28</v>
+      </c>
+      <c r="C28">
+        <v>63.97</v>
+      </c>
+      <c r="D28">
+        <v>53.57</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>243.14</v>
+      </c>
+      <c r="G28">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="H28">
+        <v>110.18</v>
+      </c>
+      <c r="I28">
+        <v>41.87</v>
+      </c>
+      <c r="J28">
+        <v>99.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>163.19</v>
+      </c>
+      <c r="C29">
+        <v>181.34</v>
+      </c>
+      <c r="D29">
+        <v>205.23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>55.86</v>
+      </c>
+      <c r="H29">
+        <v>148.9</v>
+      </c>
+      <c r="I29">
+        <v>106.17</v>
+      </c>
+      <c r="J29">
+        <v>251.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>38.29</v>
+      </c>
+      <c r="C30">
+        <v>78.98</v>
+      </c>
+      <c r="D30">
+        <v>55.17</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>387.5</v>
+      </c>
+      <c r="G30">
+        <v>99.36</v>
+      </c>
+      <c r="H30">
+        <v>29.11</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>86.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>107.68</v>
+      </c>
+      <c r="C31">
+        <v>24.29</v>
+      </c>
+      <c r="D31">
+        <v>58.69</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>93.94</v>
+      </c>
+      <c r="G31">
+        <v>37.58</v>
+      </c>
+      <c r="H31">
+        <v>33.55</v>
+      </c>
+      <c r="I31">
+        <v>14.15</v>
+      </c>
+      <c r="J31">
+        <v>124.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>27.82</v>
+      </c>
+      <c r="C32">
+        <v>29.87</v>
+      </c>
+      <c r="D32">
+        <v>20.53</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>551.11</v>
+      </c>
+      <c r="G32">
+        <v>144.19</v>
+      </c>
+      <c r="H32">
+        <v>134.5</v>
+      </c>
+      <c r="I32">
+        <v>14.43</v>
+      </c>
+      <c r="J32">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C33">
+        <v>118.15</v>
+      </c>
+      <c r="D33">
+        <v>102.74</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>206.67</v>
+      </c>
+      <c r="G33">
+        <v>127.57</v>
+      </c>
+      <c r="H33">
+        <v>216.9</v>
+      </c>
+      <c r="I33">
+        <v>102.31</v>
+      </c>
+      <c r="J33">
+        <v>82.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>55.36</v>
+      </c>
+      <c r="C34">
+        <v>27.07</v>
+      </c>
+      <c r="D34">
+        <v>111.43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>147.62</v>
+      </c>
+      <c r="G34">
+        <v>30.39</v>
+      </c>
+      <c r="H34">
+        <v>56.16</v>
+      </c>
+      <c r="I34">
+        <v>29.31</v>
+      </c>
+      <c r="J34">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>71.16</v>
+      </c>
+      <c r="C35">
+        <v>73.42</v>
+      </c>
+      <c r="D35">
+        <v>129.29</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>108.77</v>
+      </c>
+      <c r="G35">
+        <v>104.54</v>
+      </c>
+      <c r="H35">
+        <v>95.56</v>
+      </c>
+      <c r="I35">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="J35">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="C36">
+        <v>168.58</v>
+      </c>
+      <c r="D36">
+        <v>218.27</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>229.63</v>
+      </c>
+      <c r="G36">
+        <v>49.21</v>
+      </c>
+      <c r="H36">
+        <v>190.72</v>
+      </c>
+      <c r="I36">
+        <v>198.32</v>
+      </c>
+      <c r="J36">
+        <v>200.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>71.22</v>
+      </c>
+      <c r="C37">
+        <v>50.82</v>
+      </c>
+      <c r="D37">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>217.54</v>
+      </c>
+      <c r="G37">
+        <v>42.18</v>
+      </c>
+      <c r="H37">
+        <v>93.09</v>
+      </c>
+      <c r="I37">
+        <v>24.54</v>
+      </c>
+      <c r="J37">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>104.09</v>
+      </c>
+      <c r="C38">
+        <v>32.76</v>
+      </c>
+      <c r="D38">
+        <v>236.61</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>179.71</v>
+      </c>
+      <c r="G38">
+        <v>288.37</v>
+      </c>
+      <c r="H38">
+        <v>29.61</v>
+      </c>
+      <c r="I38">
+        <v>91.44</v>
+      </c>
+      <c r="J38">
+        <v>59.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>51.77</v>
+      </c>
+      <c r="C39">
+        <v>102.28</v>
+      </c>
+      <c r="D39">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>86.11</v>
+      </c>
+      <c r="H39">
+        <v>95.39</v>
+      </c>
+      <c r="I39">
+        <v>30.48</v>
+      </c>
+      <c r="J39">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>62.61</v>
+      </c>
+      <c r="C40">
+        <v>42.21</v>
+      </c>
+      <c r="D40">
+        <v>42.38</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="H40">
+        <v>78.58</v>
+      </c>
+      <c r="I40">
+        <v>125.1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SalesTrend/SalesTrend_CNH.xlsx
+++ b/Data/SalesTrend/SalesTrend_CNH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CNH</t>
@@ -518,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,819 +564,1053 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>63.96</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="C2">
-        <v>69.81</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="D2">
-        <v>58.96</v>
+        <v>72.38</v>
       </c>
       <c r="E2">
-        <v>30.3</v>
+        <v>35.74</v>
       </c>
       <c r="F2">
-        <v>123.68</v>
+        <v>117.13</v>
       </c>
       <c r="G2">
-        <v>67.87</v>
+        <v>97.7</v>
       </c>
       <c r="H2">
-        <v>69.11</v>
+        <v>75.17</v>
       </c>
       <c r="I2">
-        <v>52.29</v>
+        <v>49.7</v>
       </c>
       <c r="J2">
-        <v>64.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>77.51000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>48.14</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>50.21</v>
+        <v>63.48</v>
       </c>
       <c r="C3">
-        <v>84.33</v>
+        <v>90.59</v>
       </c>
       <c r="D3">
-        <v>67.29000000000001</v>
+        <v>57.88</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="F3">
-        <v>121.57</v>
+        <v>110.71</v>
       </c>
       <c r="G3">
-        <v>82.16</v>
+        <v>100.61</v>
       </c>
       <c r="H3">
-        <v>63.91</v>
+        <v>63.78</v>
       </c>
       <c r="I3">
-        <v>32.34</v>
+        <v>43.84</v>
       </c>
       <c r="J3">
-        <v>87.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>75.31999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>58.91</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>42.32</v>
+        <v>62.57</v>
       </c>
       <c r="C4">
-        <v>94.64</v>
+        <v>95.37</v>
       </c>
       <c r="D4">
-        <v>52.81</v>
+        <v>39.72</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>258.33</v>
+        <v>184.52</v>
       </c>
       <c r="G4">
-        <v>25.51</v>
+        <v>51.55</v>
       </c>
       <c r="H4">
-        <v>69.94</v>
+        <v>50.28</v>
       </c>
       <c r="I4">
-        <v>2.81</v>
+        <v>11.25</v>
       </c>
       <c r="J4">
-        <v>72.51000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>19.41</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>65.06</v>
+        <v>56.79</v>
       </c>
       <c r="C5">
-        <v>66.15000000000001</v>
+        <v>63.54</v>
       </c>
       <c r="D5">
-        <v>15.98</v>
+        <v>41.08</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>146.19</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>63.27</v>
       </c>
       <c r="G5">
-        <v>41.33</v>
+        <v>75.92</v>
       </c>
       <c r="H5">
-        <v>82.58</v>
+        <v>81.3</v>
       </c>
       <c r="I5">
-        <v>42.85</v>
+        <v>26.86</v>
       </c>
       <c r="J5">
-        <v>57.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>67.66</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>65.02</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>9.779999999999999</v>
+        <v>48.22</v>
       </c>
       <c r="C6">
-        <v>77.05</v>
+        <v>83.52</v>
       </c>
       <c r="D6">
-        <v>45.59</v>
+        <v>28.58</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>40.26</v>
       </c>
       <c r="G6">
-        <v>100.81</v>
+        <v>245.35</v>
       </c>
       <c r="H6">
-        <v>91.33</v>
+        <v>78.28</v>
       </c>
       <c r="I6">
-        <v>63.88</v>
+        <v>107.08</v>
       </c>
       <c r="J6">
-        <v>50.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>32.4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>34.51</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>85.56999999999999</v>
+        <v>123.48</v>
       </c>
       <c r="C7">
-        <v>10.47</v>
+        <v>74.81</v>
       </c>
       <c r="D7">
-        <v>18.67</v>
+        <v>41.92</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>93.94</v>
+        <v>120.78</v>
       </c>
       <c r="G7">
-        <v>133.95</v>
+        <v>117.16</v>
       </c>
       <c r="H7">
-        <v>18.59</v>
+        <v>92.39</v>
       </c>
       <c r="I7">
-        <v>28.38</v>
+        <v>33.36</v>
       </c>
       <c r="J7">
         <v>54.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>228.62</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>44.39</v>
+        <v>52.27</v>
       </c>
       <c r="C8">
-        <v>138.87</v>
+        <v>123.41</v>
       </c>
       <c r="D8">
-        <v>153.76</v>
+        <v>108.9</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>206.67</v>
+        <v>132.86</v>
       </c>
       <c r="G8">
-        <v>135.96</v>
+        <v>87.41</v>
       </c>
       <c r="H8">
-        <v>48.33</v>
+        <v>38.57</v>
       </c>
       <c r="I8">
-        <v>34.24</v>
+        <v>58.08</v>
       </c>
       <c r="J8">
-        <v>185.07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>118.98</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>60.96</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>70.09</v>
+        <v>62.51</v>
       </c>
       <c r="C9">
-        <v>64.13</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="D9">
-        <v>59.98</v>
+        <v>50.36</v>
       </c>
       <c r="E9">
-        <v>9.039999999999999</v>
+        <v>18.08</v>
       </c>
       <c r="F9">
-        <v>215.28</v>
+        <v>227.58</v>
       </c>
       <c r="G9">
-        <v>52.91</v>
+        <v>64.98</v>
       </c>
       <c r="H9">
-        <v>70.02</v>
+        <v>73.98</v>
       </c>
       <c r="I9">
-        <v>39.4</v>
+        <v>39.64</v>
       </c>
       <c r="J9">
-        <v>72.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>63.85</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>64.7</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>185.05</v>
+        <v>137.22</v>
       </c>
       <c r="C10">
-        <v>140.11</v>
+        <v>116</v>
       </c>
       <c r="D10">
-        <v>77.68000000000001</v>
+        <v>55.48</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>81.19</v>
       </c>
       <c r="F10">
-        <v>425.49</v>
+        <v>364.71</v>
       </c>
       <c r="G10">
-        <v>33.33</v>
+        <v>98.64</v>
       </c>
       <c r="H10">
-        <v>133.33</v>
+        <v>118.8</v>
       </c>
       <c r="I10">
-        <v>83.62</v>
+        <v>72</v>
       </c>
       <c r="J10">
-        <v>118.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>107.55</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>149.54</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>36.05</v>
+        <v>54.07</v>
       </c>
       <c r="C11">
-        <v>26.46</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D11">
-        <v>95.81</v>
+        <v>106.71</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>322.08</v>
       </c>
       <c r="G11">
-        <v>153.09</v>
+        <v>106.61</v>
       </c>
       <c r="H11">
         <v>59.39</v>
       </c>
       <c r="I11">
-        <v>21.96</v>
+        <v>60.98</v>
       </c>
       <c r="J11">
-        <v>121.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>78.15000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>60.96</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>67.43000000000001</v>
+        <v>62.15</v>
       </c>
       <c r="C12">
-        <v>71.69</v>
+        <v>82.83</v>
       </c>
       <c r="D12">
-        <v>78.58</v>
+        <v>61.02</v>
       </c>
       <c r="E12">
-        <v>63.92</v>
+        <v>27.39</v>
       </c>
       <c r="F12">
-        <v>387.5</v>
+        <v>249.11</v>
       </c>
       <c r="G12">
-        <v>35.63</v>
+        <v>45.81</v>
       </c>
       <c r="H12">
-        <v>11.74</v>
+        <v>43.28</v>
       </c>
       <c r="I12">
-        <v>14.19</v>
+        <v>18.01</v>
       </c>
       <c r="J12">
-        <v>15.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>33.05</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>121.93</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
+        <v>27.34</v>
+      </c>
+      <c r="C13">
+        <v>40.37</v>
+      </c>
+      <c r="D13">
+        <v>7.8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="G13">
+        <v>38.51</v>
+      </c>
+      <c r="H13">
+        <v>53.57</v>
+      </c>
+      <c r="I13">
+        <v>19.76</v>
+      </c>
+      <c r="J13">
+        <v>38.51</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>23.33</v>
+      </c>
+      <c r="C14">
+        <v>16.01</v>
+      </c>
+      <c r="D14">
+        <v>10.46</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>98.41</v>
+      </c>
+      <c r="G14">
+        <v>17.03</v>
+      </c>
+      <c r="H14">
+        <v>52.01</v>
+      </c>
+      <c r="I14">
+        <v>20.78</v>
+      </c>
+      <c r="J14">
+        <v>21.09</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>106.87</v>
+      </c>
+      <c r="C15">
+        <v>109.63</v>
+      </c>
+      <c r="D15">
+        <v>102.53</v>
+      </c>
+      <c r="E15">
+        <v>113.58</v>
+      </c>
+      <c r="F15">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="G15">
+        <v>103.3</v>
+      </c>
+      <c r="H15">
+        <v>93.37</v>
+      </c>
+      <c r="I15">
+        <v>47.57</v>
+      </c>
+      <c r="J15">
+        <v>79.17</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>55.65</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>53.71</v>
+      </c>
+      <c r="C16">
+        <v>51.77</v>
+      </c>
+      <c r="D16">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="E16">
+        <v>103.19</v>
+      </c>
+      <c r="F16">
+        <v>35.43</v>
+      </c>
+      <c r="G16">
+        <v>55.99</v>
+      </c>
+      <c r="H16">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="I16">
+        <v>13.4</v>
+      </c>
+      <c r="J16">
+        <v>51.82</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>127.25</v>
+      </c>
+      <c r="C17">
+        <v>136.98</v>
+      </c>
+      <c r="D17">
+        <v>142.63</v>
+      </c>
+      <c r="E17">
+        <v>202.08</v>
+      </c>
+      <c r="F17">
+        <v>76.34999999999999</v>
+      </c>
+      <c r="G17">
+        <v>142.02</v>
+      </c>
+      <c r="H17">
+        <v>80.92</v>
+      </c>
+      <c r="I17">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="J17">
+        <v>72.17</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>105.83</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>102.31</v>
+      </c>
+      <c r="C18">
+        <v>150.26</v>
+      </c>
+      <c r="D18">
+        <v>92.03</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>167.98</v>
+      </c>
+      <c r="G18">
+        <v>95.86</v>
+      </c>
+      <c r="H18">
+        <v>115.08</v>
+      </c>
+      <c r="I18">
+        <v>63.54</v>
+      </c>
+      <c r="J18">
+        <v>93.42</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>39.56</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>174.77</v>
+      </c>
+      <c r="C19">
+        <v>115.11</v>
+      </c>
+      <c r="D19">
+        <v>117.14</v>
+      </c>
+      <c r="E19">
+        <v>54.79</v>
+      </c>
+      <c r="F19">
+        <v>161.04</v>
+      </c>
+      <c r="G19">
+        <v>127.86</v>
+      </c>
+      <c r="H19">
+        <v>86.3</v>
+      </c>
+      <c r="I19">
+        <v>36.43</v>
+      </c>
+      <c r="J19">
+        <v>122.01</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>97.55</v>
+      </c>
+      <c r="C20">
+        <v>85.78</v>
+      </c>
+      <c r="D20">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="E20">
+        <v>197.78</v>
+      </c>
+      <c r="F20">
+        <v>59.05</v>
+      </c>
+      <c r="G20">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="H20">
+        <v>99.87</v>
+      </c>
+      <c r="I20">
         <v>27.55</v>
       </c>
-      <c r="C13">
-        <v>47.1</v>
-      </c>
-      <c r="D13">
-        <v>18.19</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>44.93</v>
-      </c>
-      <c r="H13">
-        <v>125</v>
-      </c>
-      <c r="I13">
-        <v>25.52</v>
-      </c>
-      <c r="J13">
-        <v>44.93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>22.53</v>
-      </c>
-      <c r="C14">
-        <v>14.94</v>
-      </c>
-      <c r="D14">
-        <v>12.2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>114.81</v>
-      </c>
-      <c r="G14">
-        <v>19.87</v>
-      </c>
-      <c r="H14">
-        <v>17.34</v>
-      </c>
-      <c r="I14">
+      <c r="J20">
+        <v>48.61</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>48.18</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>60.02</v>
+      </c>
+      <c r="C21">
+        <v>43.01</v>
+      </c>
+      <c r="D21">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="E21">
+        <v>49.26</v>
+      </c>
+      <c r="F21">
+        <v>37.6</v>
+      </c>
+      <c r="G21">
+        <v>48.18</v>
+      </c>
+      <c r="H21">
+        <v>58.08</v>
+      </c>
+      <c r="I21">
+        <v>32.29</v>
+      </c>
+      <c r="J21">
+        <v>61.79</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>8.33</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>64.87</v>
+      </c>
+      <c r="C22">
+        <v>31.67</v>
+      </c>
+      <c r="D22">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="E22">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F22">
+        <v>59.05</v>
+      </c>
+      <c r="G22">
+        <v>80.05</v>
+      </c>
+      <c r="H22">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="I22">
+        <v>33.82</v>
+      </c>
+      <c r="J22">
+        <v>99.33</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>93.09</v>
+      </c>
+      <c r="C23">
+        <v>51.55</v>
+      </c>
+      <c r="D23">
+        <v>43.94</v>
+      </c>
+      <c r="E23">
+        <v>105.01</v>
+      </c>
+      <c r="F23">
+        <v>40.26</v>
+      </c>
+      <c r="G23">
+        <v>63.27</v>
+      </c>
+      <c r="H23">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="I23">
+        <v>36.88</v>
+      </c>
+      <c r="J23">
+        <v>70.39</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>59.2</v>
+      </c>
+      <c r="C24">
+        <v>53.44</v>
+      </c>
+      <c r="D24">
+        <v>32.97</v>
+      </c>
+      <c r="E24">
+        <v>23.83</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>23.94</v>
+      </c>
+      <c r="H24">
+        <v>49.84</v>
+      </c>
+      <c r="I24">
+        <v>24.06</v>
+      </c>
+      <c r="J24">
+        <v>54.51</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>72.61</v>
+      </c>
+      <c r="C25">
+        <v>52.89</v>
+      </c>
+      <c r="D25">
+        <v>96.44</v>
+      </c>
+      <c r="E25">
+        <v>36.55</v>
+      </c>
+      <c r="F25">
         <v>35.43</v>
       </c>
-      <c r="J14">
-        <v>49.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>100.24</v>
-      </c>
-      <c r="C15">
-        <v>141.03</v>
-      </c>
-      <c r="D15">
-        <v>65.59</v>
-      </c>
-      <c r="E15">
-        <v>133.53</v>
-      </c>
-      <c r="F15">
-        <v>104.28</v>
-      </c>
-      <c r="G15">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="H15">
-        <v>80.29000000000001</v>
-      </c>
-      <c r="I15">
-        <v>70.98999999999999</v>
-      </c>
-      <c r="J15">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>24.78</v>
-      </c>
-      <c r="C16">
-        <v>73.34999999999999</v>
-      </c>
-      <c r="D16">
-        <v>49.36</v>
-      </c>
-      <c r="E16">
-        <v>240.77</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>63.9</v>
-      </c>
-      <c r="I16">
-        <v>25.22</v>
-      </c>
-      <c r="J16">
-        <v>32.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>200.68</v>
-      </c>
-      <c r="C17">
-        <v>250.62</v>
-      </c>
-      <c r="D17">
-        <v>71.67</v>
-      </c>
-      <c r="E17">
-        <v>411.33</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>137.07</v>
-      </c>
-      <c r="H17">
-        <v>64.66</v>
-      </c>
-      <c r="I17">
-        <v>158.49</v>
-      </c>
-      <c r="J17">
-        <v>61.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>143.47</v>
-      </c>
-      <c r="C18">
-        <v>205.03</v>
-      </c>
-      <c r="D18">
-        <v>112.33</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>320.69</v>
-      </c>
-      <c r="G18">
-        <v>146.13</v>
-      </c>
-      <c r="H18">
-        <v>179.02</v>
-      </c>
-      <c r="I18">
-        <v>90.81</v>
-      </c>
-      <c r="J18">
-        <v>96.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>91.65000000000001</v>
-      </c>
-      <c r="C19">
-        <v>78.34</v>
-      </c>
-      <c r="D19">
-        <v>56.59</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>93.94</v>
-      </c>
-      <c r="G19">
-        <v>10.88</v>
-      </c>
-      <c r="H19">
-        <v>37.97</v>
-      </c>
-      <c r="I19">
-        <v>18.93</v>
-      </c>
-      <c r="J19">
-        <v>42.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>40.95</v>
-      </c>
-      <c r="C20">
-        <v>32.53</v>
-      </c>
-      <c r="D20">
-        <v>28.48</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>68.89</v>
-      </c>
-      <c r="G20">
-        <v>15.9</v>
-      </c>
-      <c r="H20">
-        <v>41.28</v>
-      </c>
-      <c r="I20">
-        <v>19.18</v>
-      </c>
-      <c r="J20">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>28.3</v>
-      </c>
-      <c r="C21">
-        <v>25.02</v>
-      </c>
-      <c r="D21">
-        <v>28.84</v>
-      </c>
-      <c r="E21">
-        <v>51.33</v>
-      </c>
-      <c r="F21">
-        <v>19.5</v>
-      </c>
-      <c r="G21">
-        <v>17.11</v>
-      </c>
-      <c r="H21">
-        <v>39.83</v>
-      </c>
-      <c r="I21">
-        <v>21.48</v>
-      </c>
-      <c r="J21">
-        <v>28.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>11.51</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>27.63</v>
-      </c>
-      <c r="E22">
-        <v>30.1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>13.07</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>28.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>41.35</v>
-      </c>
-      <c r="C23">
-        <v>38.27</v>
-      </c>
-      <c r="D23">
-        <v>38.33</v>
-      </c>
-      <c r="E23">
-        <v>181.1</v>
-      </c>
-      <c r="F23">
-        <v>93.94</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>65.56999999999999</v>
-      </c>
-      <c r="I23">
-        <v>16.79</v>
-      </c>
-      <c r="J23">
-        <v>27.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>48.69</v>
-      </c>
-      <c r="C24">
-        <v>40.99</v>
-      </c>
-      <c r="D24">
-        <v>15.26</v>
-      </c>
-      <c r="E24">
-        <v>27.8</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>43.85</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>39.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>32.3</v>
-      </c>
-      <c r="C25">
-        <v>53.24</v>
-      </c>
-      <c r="D25">
-        <v>54.34</v>
-      </c>
-      <c r="E25">
-        <v>85.28</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
-        <v>20.67</v>
+        <v>62</v>
       </c>
       <c r="H25">
-        <v>32.03</v>
+        <v>57.57</v>
       </c>
       <c r="I25">
-        <v>53.07</v>
+        <v>30.64</v>
       </c>
       <c r="J25">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>33.63</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>32.7</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>42.52</v>
+        <v>52.44</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>48.29</v>
       </c>
       <c r="D26">
-        <v>14.72</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>27.39</v>
       </c>
       <c r="F26">
-        <v>54.39</v>
+        <v>46.62</v>
       </c>
       <c r="G26">
-        <v>70.45</v>
+        <v>30.19</v>
       </c>
       <c r="H26">
-        <v>51.1</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="I26">
-        <v>40.25</v>
+        <v>50.77</v>
       </c>
       <c r="J26">
-        <v>48.74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>71.02</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>9.06</v>
+        <v>26.52</v>
       </c>
       <c r="C27">
-        <v>5.87</v>
+        <v>23.48</v>
       </c>
       <c r="D27">
-        <v>20.48</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1379,428 +1622,554 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20.26</v>
+        <v>26.05</v>
       </c>
       <c r="I27">
-        <v>26.28</v>
+        <v>14.91</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>18.45</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>67.28</v>
+        <v>56.66</v>
       </c>
       <c r="C28">
-        <v>63.97</v>
+        <v>59.06</v>
       </c>
       <c r="D28">
-        <v>53.57</v>
+        <v>59.15</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>243.14</v>
+        <v>201.89</v>
       </c>
       <c r="G28">
-        <v>88.95999999999999</v>
+        <v>130.09</v>
       </c>
       <c r="H28">
-        <v>110.18</v>
+        <v>83.69</v>
       </c>
       <c r="I28">
-        <v>41.87</v>
+        <v>43.65</v>
       </c>
       <c r="J28">
-        <v>99.09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>83.72</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>11.11</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>163.19</v>
+        <v>85.83</v>
       </c>
       <c r="C29">
-        <v>181.34</v>
+        <v>81.42</v>
       </c>
       <c r="D29">
-        <v>205.23</v>
+        <v>122.05</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>73.81</v>
       </c>
       <c r="G29">
-        <v>55.86</v>
+        <v>95.75</v>
       </c>
       <c r="H29">
-        <v>148.9</v>
+        <v>95.72</v>
       </c>
       <c r="I29">
-        <v>106.17</v>
+        <v>64.78</v>
       </c>
       <c r="J29">
-        <v>251.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>119.69</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>76.20999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>38.29</v>
+        <v>34.81</v>
       </c>
       <c r="C30">
-        <v>78.98</v>
+        <v>59.24</v>
       </c>
       <c r="D30">
-        <v>55.17</v>
+        <v>76.16</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>387.5</v>
+        <v>221.43</v>
       </c>
       <c r="G30">
-        <v>99.36</v>
+        <v>83.95</v>
       </c>
       <c r="H30">
-        <v>29.11</v>
+        <v>57.38</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J30">
-        <v>86.11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>64.58</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>107.68</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="C31">
-        <v>24.29</v>
+        <v>45.81</v>
       </c>
       <c r="D31">
-        <v>58.69</v>
+        <v>107.26</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>93.94</v>
+        <v>161.04</v>
       </c>
       <c r="G31">
-        <v>37.58</v>
+        <v>43.71</v>
       </c>
       <c r="H31">
-        <v>33.55</v>
+        <v>43.14</v>
       </c>
       <c r="I31">
-        <v>14.15</v>
+        <v>21.22</v>
       </c>
       <c r="J31">
-        <v>124.71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>27.82</v>
+        <v>33.61</v>
       </c>
       <c r="C32">
-        <v>29.87</v>
+        <v>43.84</v>
       </c>
       <c r="D32">
-        <v>20.53</v>
+        <v>31.56</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>551.11</v>
+        <v>265.71</v>
       </c>
       <c r="G32">
-        <v>144.19</v>
+        <v>253.06</v>
       </c>
       <c r="H32">
-        <v>134.5</v>
+        <v>92.41</v>
       </c>
       <c r="I32">
-        <v>14.43</v>
+        <v>66.13</v>
       </c>
       <c r="J32">
-        <v>59.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>80.14</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1.86</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>82.01000000000001</v>
+        <v>72.09</v>
       </c>
       <c r="C33">
-        <v>118.15</v>
+        <v>96.73</v>
       </c>
       <c r="D33">
-        <v>102.74</v>
+        <v>94.52</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>206.67</v>
+        <v>295.24</v>
       </c>
       <c r="G33">
-        <v>127.57</v>
+        <v>190.58</v>
       </c>
       <c r="H33">
-        <v>216.9</v>
+        <v>135.05</v>
       </c>
       <c r="I33">
-        <v>102.31</v>
+        <v>60.84</v>
       </c>
       <c r="J33">
-        <v>82.67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>55.36</v>
+        <v>69.86</v>
       </c>
       <c r="C34">
-        <v>27.07</v>
+        <v>56.08</v>
       </c>
       <c r="D34">
-        <v>111.43</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>147.62</v>
+        <v>126.53</v>
       </c>
       <c r="G34">
-        <v>30.39</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="H34">
-        <v>56.16</v>
+        <v>60.97</v>
       </c>
       <c r="I34">
-        <v>29.31</v>
+        <v>29.78</v>
       </c>
       <c r="J34">
         <v>73.81</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>101.61</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>71.16</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C35">
-        <v>73.42</v>
+        <v>93.56</v>
       </c>
       <c r="D35">
-        <v>129.29</v>
+        <v>134.07</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>25.25</v>
       </c>
       <c r="F35">
-        <v>108.77</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="G35">
-        <v>104.54</v>
+        <v>146.72</v>
       </c>
       <c r="H35">
-        <v>95.56</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="I35">
-        <v>97.51000000000001</v>
+        <v>81.55</v>
       </c>
       <c r="J35">
-        <v>90.09</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>131.72</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>204.82</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>72.45999999999999</v>
+        <v>58.33</v>
       </c>
       <c r="C36">
-        <v>168.58</v>
+        <v>123.09</v>
       </c>
       <c r="D36">
-        <v>218.27</v>
+        <v>122.13</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>229.63</v>
+        <v>98.41</v>
       </c>
       <c r="G36">
-        <v>49.21</v>
+        <v>21.09</v>
       </c>
       <c r="H36">
-        <v>190.72</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="I36">
-        <v>198.32</v>
+        <v>100.71</v>
       </c>
       <c r="J36">
-        <v>200.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>110.71</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>71.22</v>
+        <v>102.37</v>
       </c>
       <c r="C37">
-        <v>50.82</v>
+        <v>155.57</v>
       </c>
       <c r="D37">
-        <v>64.95999999999999</v>
+        <v>152.2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>127.84</v>
       </c>
       <c r="F37">
-        <v>217.54</v>
+        <v>163.16</v>
       </c>
       <c r="G37">
-        <v>42.18</v>
+        <v>188.51</v>
       </c>
       <c r="H37">
-        <v>93.09</v>
+        <v>159.59</v>
       </c>
       <c r="I37">
-        <v>24.54</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="J37">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>232.5</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>318.95</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>104.09</v>
+        <v>186.35</v>
       </c>
       <c r="C38">
-        <v>32.76</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="D38">
-        <v>236.61</v>
+        <v>201.6</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>179.71</v>
+        <v>96.27</v>
       </c>
       <c r="G38">
         <v>288.37</v>
       </c>
       <c r="H38">
-        <v>29.61</v>
+        <v>145.93</v>
       </c>
       <c r="I38">
-        <v>91.44</v>
+        <v>110.81</v>
       </c>
       <c r="J38">
-        <v>59.62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>144.78</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>60.96</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>51.77</v>
+        <v>47.78</v>
       </c>
       <c r="C39">
-        <v>102.28</v>
+        <v>60.7</v>
       </c>
       <c r="D39">
-        <v>65.18000000000001</v>
+        <v>47.3</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>93.23</v>
       </c>
       <c r="G39">
-        <v>86.11</v>
+        <v>148.67</v>
       </c>
       <c r="H39">
-        <v>95.39</v>
+        <v>54.51</v>
       </c>
       <c r="I39">
-        <v>30.48</v>
+        <v>38.35</v>
       </c>
       <c r="J39">
-        <v>118.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>625.75</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40">
-        <v>62.61</v>
+        <v>75.67</v>
       </c>
       <c r="C40">
-        <v>42.21</v>
+        <v>62.23</v>
       </c>
       <c r="D40">
-        <v>42.38</v>
+        <v>131.67</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="G40">
-        <v>82.01000000000001</v>
+        <v>99.42</v>
       </c>
       <c r="H40">
-        <v>78.58</v>
+        <v>33.68</v>
       </c>
       <c r="I40">
-        <v>125.1</v>
+        <v>62.03</v>
       </c>
       <c r="J40">
+        <v>55.36</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>0</v>
       </c>
     </row>
